--- a/biology/Botanique/Aquilegia_pyrenaica/Aquilegia_pyrenaica.xlsx
+++ b/biology/Botanique/Aquilegia_pyrenaica/Aquilegia_pyrenaica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancolie des Pyrénées Écouter (Aquilegia pyrenaica) est une espèce de plantes herbacées du genre Aquilegia (les ancolies), de la famille des Ranunculaceae. Elle est rare et endémique des Pyrénées. Elle est de petite taille, mesurant entre 10 et 25 centimètres.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Couleur dominante des fleurs : bleu à violacé
